--- a/classfiers/nano/svm/smote/nano-svm-poly-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.7984790874524715</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9551569506726457</v>
+        <v>0.8823529411764708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9880314752363949</v>
+        <v>0.9839978840177214</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7859778597785978</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8801652892561983</v>
+        <v>0.8385826771653544</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9909629923516058</v>
+        <v>0.9735502215168947</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.598314606741573</v>
+        <v>0.707641196013289</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7486818980667838</v>
+        <v>0.8287937743190662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9496792964358923</v>
+        <v>0.9684806806409664</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5835616438356165</v>
+        <v>0.8098859315589354</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7370242214532873</v>
+        <v>0.8949579831932774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9539994269214662</v>
+        <v>0.9608322863629351</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5095693779904307</v>
+        <v>0.9021276595744681</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6751188589540412</v>
+        <v>0.9464285714285713</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9520156935352333</v>
+        <v>0.9771870660583217</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6783173156949946</v>
+        <v>0.7880335545808498</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.996244131455399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7992294436805911</v>
+        <v>0.8782231894565481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9669377768961185</v>
+        <v>0.9728096277193679</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/smote/nano-svm-poly-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7984790874524715</v>
+        <v>0.722007722007722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8823529411764708</v>
+        <v>0.82560706401766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9839978840177214</v>
+        <v>0.969444149218833</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7220338983050848</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9792746113989638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8385826771653544</v>
+        <v>0.8271334792122539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9735502215168947</v>
+        <v>0.9550237700977512</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.707641196013289</v>
+        <v>0.6875</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9689119170984456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8287937743190662</v>
+        <v>0.8043010752688173</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9684806806409664</v>
+        <v>0.9458629346722931</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8098859315589354</v>
+        <v>0.8325991189427313</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9742268041237113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8949579831932774</v>
+        <v>0.8978622327790974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9608322863629351</v>
+        <v>0.9495753431974788</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9021276595744681</v>
+        <v>0.6953405017921147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9953051643192489</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9464285714285713</v>
+        <v>0.8202959830866807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9771870660583217</v>
+        <v>0.9536349553976818</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7880335545808498</v>
+        <v>0.7306712867303318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996244131455399</v>
+        <v>0.9772661716788633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8782231894565481</v>
+        <v>0.8350399668729018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9728096277193679</v>
+        <v>0.9547082305168075</v>
       </c>
     </row>
   </sheetData>
